--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1220.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1220.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.228767233052441</v>
+        <v>1.195759773254395</v>
       </c>
       <c r="B1">
-        <v>3.625039573114778</v>
+        <v>2.177659273147583</v>
       </c>
       <c r="C1">
-        <v>3.044133853581406</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.017356330182701</v>
+        <v>2.142472743988037</v>
       </c>
       <c r="E1">
-        <v>1.234465777977437</v>
+        <v>1.212908148765564</v>
       </c>
     </row>
   </sheetData>
